--- a/data/fake_rasts.xlsx
+++ b/data/fake_rasts.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casey\Documents\github\fig_for_spp_chi\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohara/github/fig_for_spp_chi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0864F5EC-FBD2-0C4F-B32B-E58F8C841F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25260" windowHeight="9375" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25260" windowHeight="12260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spp1" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,16 +358,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -398,7 +399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -430,7 +431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -438,19 +439,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -462,7 +463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -479,13 +480,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -494,7 +495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -526,7 +527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -558,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -590,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -622,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -654,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -702,16 +703,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -722,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1">
         <v>1</v>
@@ -743,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -754,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -775,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -786,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -807,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -818,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -839,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -847,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -871,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -879,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -900,10 +901,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -911,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -932,18 +933,18 @@
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -964,18 +965,18 @@
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -999,15 +1000,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1047,16 +1048,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1067,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1">
         <v>1</v>
@@ -1088,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1099,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -1120,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1128,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -1152,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1160,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -1184,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1192,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1216,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1224,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -1248,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1256,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1280,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1288,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1312,18 +1313,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1344,15 +1345,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1392,16 +1393,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1430,10 +1431,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1462,10 +1463,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1494,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1526,10 +1527,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1555,18 +1556,18 @@
         <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1587,18 +1588,18 @@
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1613,51 +1614,51 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1665,31 +1666,31 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1697,16 +1698,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1722,7 +1723,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:J10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J10">
     <sortCondition descending="1" ref="J10"/>
   </sortState>
   <conditionalFormatting sqref="A1:J10">
@@ -1740,16 +1741,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.2</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.2</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.2</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.2</v>
       </c>
@@ -1973,7 +1974,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.2</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.2</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -2071,6 +2072,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2079,6 +2088,706 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:F10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2088,706 +2797,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:J10">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-  </sheetData>
   <conditionalFormatting sqref="G1:J4">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F10">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2806,16 +2817,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:J10">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/fake_rasts.xlsx
+++ b/data/fake_rasts.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohara/github/fig_for_spp_chi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0864F5EC-FBD2-0C4F-B32B-E58F8C841F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7171840C-EF07-484C-A97A-EE8AF12C6073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25260" windowHeight="12260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="4820" windowWidth="25260" windowHeight="12260" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spp1" sheetId="1" r:id="rId1"/>
     <sheet name="spp2" sheetId="2" r:id="rId2"/>
     <sheet name="spp3" sheetId="3" r:id="rId3"/>
     <sheet name="spp4" sheetId="4" r:id="rId4"/>
-    <sheet name="str1" sheetId="5" r:id="rId5"/>
-    <sheet name="str2" sheetId="6" r:id="rId6"/>
-    <sheet name="str3" sheetId="7" r:id="rId7"/>
+    <sheet name="str1" sheetId="7" r:id="rId5"/>
+    <sheet name="str3" sheetId="5" r:id="rId6"/>
+    <sheet name="str2" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -361,8 +361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -521,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -553,10 +553,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -585,10 +585,10 @@
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -617,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1741,6 +1741,392 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G1:K10">
+    <sortCondition descending="1" ref="G1:G10"/>
+  </sortState>
+  <conditionalFormatting sqref="G1:J4">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:J10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F10">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:J10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -2068,359 +2454,6 @@
       </c>
       <c r="J10" s="1">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:J10">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2447,27 +2480,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="B1" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1">
         <v>0</v>
@@ -2490,19 +2523,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -2528,16 +2561,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -2554,22 +2587,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -2578,135 +2611,135 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I8" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -2714,31 +2747,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -2746,16 +2779,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2764,29 +2797,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:F10">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -2796,18 +2819,6 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:J4">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:J10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
